--- a/InputFiles/CDS/TC04_CDSValidation_by_ParticipantID - 5.xlsx
+++ b/InputFiles/CDS/TC04_CDSValidation_by_ParticipantID - 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6316C829-D664-43DD-B851-558FEE3D3DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD3AB72-F9B9-45D9-8081-70CB6E3124BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32865" yWindow="1680" windowWidth="41040" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>dbExcel</t>
   </si>
   <si>
-    <t>WebExcel</t>
-  </si>
-  <si>
     <t>SamplesTab</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>TC04_CDSValidation_by_ParticipantID - 5_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC04_CDSValidation_by_ParticipantID - 5_WebData.xlsx</t>
   </si>
   <si>
     <t>MATCH (p:participant)--&gt;(s:study)
@@ -100,6 +94,12 @@
     coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(f.file_type, '') as `File Type`
 ORDER By f.file_name LIMIT 100</t>
+  </si>
+  <si>
+    <t>ExDataExcel</t>
+  </si>
+  <si>
+    <t>TC04_CDSValidation_by_ParticipantID - 5_ExcelData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -422,15 +422,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.54296875" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.08984375" customWidth="1"/>
     <col min="4" max="4" width="39.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,49 +445,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
